--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/4 Boroi Hati Khal/CS Boroi hati khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/4 Boroi Hati Khal/CS Boroi hati khal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="845" activeTab="2"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Boroi hati khal'!$A$1:$T$110</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -861,24 +861,6 @@
     <xf numFmtId="2" fontId="22" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -929,6 +911,24 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -944,10 +944,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -956,11 +956,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1330,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194529536"/>
-        <c:axId val="194536192"/>
+        <c:axId val="145424768"/>
+        <c:axId val="145427072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194529536"/>
+        <c:axId val="145424768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194536192"/>
+        <c:crossAx val="145427072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194536192"/>
+        <c:axId val="145427072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194529536"/>
+        <c:crossAx val="145424768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1781,11 +1781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197348352"/>
-        <c:axId val="197350144"/>
+        <c:axId val="16875520"/>
+        <c:axId val="16877056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197348352"/>
+        <c:axId val="16875520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1831,12 +1831,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197350144"/>
+        <c:crossAx val="16877056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197350144"/>
+        <c:axId val="16877056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197348352"/>
+        <c:crossAx val="16875520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2109,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197137920"/>
-        <c:axId val="197139456"/>
+        <c:axId val="16890112"/>
+        <c:axId val="16891904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197137920"/>
+        <c:axId val="16890112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2159,12 +2159,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197139456"/>
+        <c:crossAx val="16891904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197139456"/>
+        <c:axId val="16891904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197137920"/>
+        <c:crossAx val="16890112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2449,11 +2449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195010560"/>
-        <c:axId val="195012096"/>
+        <c:axId val="204866688"/>
+        <c:axId val="205352960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195010560"/>
+        <c:axId val="204866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2499,12 +2499,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195012096"/>
+        <c:crossAx val="205352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195012096"/>
+        <c:axId val="205352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195010560"/>
+        <c:crossAx val="204866688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2789,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195307776"/>
-        <c:axId val="195313664"/>
+        <c:axId val="205516800"/>
+        <c:axId val="205518336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195307776"/>
+        <c:axId val="205516800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2839,12 +2839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195313664"/>
+        <c:crossAx val="205518336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195313664"/>
+        <c:axId val="205518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195307776"/>
+        <c:crossAx val="205516800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3129,11 +3129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195343872"/>
-        <c:axId val="195345408"/>
+        <c:axId val="242139136"/>
+        <c:axId val="242141056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195343872"/>
+        <c:axId val="242139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3179,12 +3179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195345408"/>
+        <c:crossAx val="242141056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195345408"/>
+        <c:axId val="242141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195343872"/>
+        <c:crossAx val="242139136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3463,11 +3463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195736704"/>
-        <c:axId val="195738240"/>
+        <c:axId val="251529856"/>
+        <c:axId val="252634240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195736704"/>
+        <c:axId val="251529856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3513,12 +3513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195738240"/>
+        <c:crossAx val="252634240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195738240"/>
+        <c:axId val="252634240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,7 +3563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195736704"/>
+        <c:crossAx val="251529856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3803,11 +3803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195383296"/>
-        <c:axId val="195384832"/>
+        <c:axId val="263957504"/>
+        <c:axId val="271946880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195383296"/>
+        <c:axId val="263957504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3853,12 +3853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195384832"/>
+        <c:crossAx val="271946880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195384832"/>
+        <c:axId val="271946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195383296"/>
+        <c:crossAx val="263957504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4143,11 +4143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195417984"/>
-        <c:axId val="195419520"/>
+        <c:axId val="317342080"/>
+        <c:axId val="317344000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195417984"/>
+        <c:axId val="317342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4193,12 +4193,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195419520"/>
+        <c:crossAx val="317344000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195419520"/>
+        <c:axId val="317344000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195417984"/>
+        <c:crossAx val="317342080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4489,11 +4489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195774720"/>
-        <c:axId val="195780608"/>
+        <c:axId val="16849920"/>
+        <c:axId val="16855808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195774720"/>
+        <c:axId val="16849920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4539,12 +4539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195780608"/>
+        <c:crossAx val="16855808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195780608"/>
+        <c:axId val="16855808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,7 +4589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195774720"/>
+        <c:crossAx val="16849920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195810048"/>
-        <c:axId val="195811584"/>
+        <c:axId val="16864768"/>
+        <c:axId val="16866304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195810048"/>
+        <c:axId val="16864768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4879,12 +4879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195811584"/>
+        <c:crossAx val="16866304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195811584"/>
+        <c:axId val="16866304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,7 +4929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195810048"/>
+        <c:crossAx val="16864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5003,7 +5003,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,7 +5046,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5084,7 +5084,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5122,7 +5122,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5165,7 +5165,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5203,7 +5203,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5241,7 +5241,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5279,7 +5279,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5317,7 +5317,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5355,7 +5355,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5393,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5436,7 +5436,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5569,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5721,7 +5721,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,15 +6493,15 @@
       <c r="A1" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
@@ -6746,19 +6746,19 @@
     </row>
     <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="102"/>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
       <c r="Z7" s="104"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -6868,77 +6868,77 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="102"/>
-      <c r="P34" s="130" t="s">
+      <c r="P34" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="131"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="132"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="125"/>
+      <c r="Z34" s="126"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="102"/>
-      <c r="P35" s="133" t="s">
+      <c r="P35" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="134"/>
-      <c r="S35" s="134"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="134"/>
-      <c r="W35" s="134"/>
-      <c r="X35" s="134"/>
-      <c r="Y35" s="134"/>
-      <c r="Z35" s="135"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="129"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="102"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="138"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
+      <c r="U36" s="131"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="131"/>
+      <c r="X36" s="131"/>
+      <c r="Y36" s="131"/>
+      <c r="Z36" s="132"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="102"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="138"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="131"/>
+      <c r="X37" s="131"/>
+      <c r="Y37" s="131"/>
+      <c r="Z37" s="132"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="102"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="140"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="140"/>
-      <c r="V38" s="140"/>
-      <c r="W38" s="140"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="141"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="135"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="102"/>
@@ -6998,83 +6998,83 @@
     </row>
     <row r="43" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="102"/>
-      <c r="P43" s="142" t="s">
+      <c r="P43" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="Q43" s="143"/>
-      <c r="R43" s="143"/>
-      <c r="S43" s="144"/>
-      <c r="T43" s="142" t="s">
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="U43" s="143"/>
-      <c r="V43" s="143"/>
-      <c r="W43" s="144"/>
-      <c r="X43" s="142" t="s">
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="138"/>
+      <c r="X43" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="Y43" s="143"/>
-      <c r="Z43" s="144"/>
+      <c r="Y43" s="137"/>
+      <c r="Z43" s="138"/>
     </row>
     <row r="44" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="102"/>
-      <c r="P44" s="121" t="s">
+      <c r="P44" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="121" t="s">
+      <c r="Q44" s="140"/>
+      <c r="R44" s="140"/>
+      <c r="S44" s="141"/>
+      <c r="T44" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="123"/>
-      <c r="X44" s="121" t="s">
+      <c r="U44" s="140"/>
+      <c r="V44" s="140"/>
+      <c r="W44" s="141"/>
+      <c r="X44" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="Y44" s="122"/>
-      <c r="Z44" s="123"/>
+      <c r="Y44" s="140"/>
+      <c r="Z44" s="141"/>
     </row>
     <row r="45" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="102"/>
-      <c r="P45" s="121" t="s">
+      <c r="P45" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="121" t="s">
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="U45" s="122"/>
-      <c r="V45" s="122"/>
-      <c r="W45" s="123"/>
-      <c r="X45" s="121" t="s">
+      <c r="U45" s="140"/>
+      <c r="V45" s="140"/>
+      <c r="W45" s="141"/>
+      <c r="X45" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="Y45" s="122"/>
-      <c r="Z45" s="123"/>
+      <c r="Y45" s="140"/>
+      <c r="Z45" s="141"/>
     </row>
     <row r="46" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="102"/>
-      <c r="P46" s="121" t="s">
+      <c r="P46" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="121" t="s">
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="141"/>
+      <c r="T46" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="U46" s="122"/>
-      <c r="V46" s="122"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="121" t="s">
+      <c r="U46" s="140"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="141"/>
+      <c r="X46" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="Y46" s="122"/>
-      <c r="Z46" s="123"/>
+      <c r="Y46" s="140"/>
+      <c r="Z46" s="141"/>
     </row>
     <row r="47" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="115"/>
@@ -7092,23 +7092,23 @@
       <c r="M47" s="116"/>
       <c r="N47" s="116"/>
       <c r="O47" s="116"/>
-      <c r="P47" s="124" t="s">
+      <c r="P47" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="125"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="124" t="s">
+      <c r="Q47" s="143"/>
+      <c r="R47" s="143"/>
+      <c r="S47" s="144"/>
+      <c r="T47" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="U47" s="125"/>
-      <c r="V47" s="125"/>
-      <c r="W47" s="126"/>
-      <c r="X47" s="124" t="s">
+      <c r="U47" s="143"/>
+      <c r="V47" s="143"/>
+      <c r="W47" s="144"/>
+      <c r="X47" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="Y47" s="125"/>
-      <c r="Z47" s="126"/>
+      <c r="Y47" s="143"/>
+      <c r="Z47" s="144"/>
     </row>
     <row r="53" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P53" s="117"/>
@@ -7151,6 +7151,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:Z45"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:P7"/>
     <mergeCell ref="P34:Z34"/>
@@ -7158,18 +7170,6 @@
     <mergeCell ref="P43:S43"/>
     <mergeCell ref="T43:W43"/>
     <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X47:Z47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -9542,10 +9542,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V780"/>
+  <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="106" zoomScaleNormal="86" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="106" zoomScaleNormal="86" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="B63" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9947,28 +9947,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
       <c r="U1" s="38"/>
       <c r="V1" s="38"/>
     </row>
@@ -10438,10 +10438,10 @@
       <c r="E15" s="39"/>
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="151"/>
+      <c r="I15" s="154"/>
       <c r="J15" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -10984,10 +10984,10 @@
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="151" t="s">
+      <c r="H30" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="151"/>
+      <c r="I30" s="154"/>
       <c r="J30" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -12774,10 +12774,10 @@
       <c r="E79" s="39"/>
       <c r="F79" s="44"/>
       <c r="G79" s="45"/>
-      <c r="H79" s="151" t="s">
+      <c r="H79" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="151"/>
+      <c r="I79" s="154"/>
       <c r="J79" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13354,10 +13354,10 @@
       <c r="E96" s="39"/>
       <c r="F96" s="44"/>
       <c r="G96" s="45"/>
-      <c r="H96" s="151" t="s">
+      <c r="H96" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="151"/>
+      <c r="I96" s="154"/>
       <c r="J96" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13907,10 +13907,10 @@
       <c r="E115" s="39"/>
       <c r="F115" s="44"/>
       <c r="G115" s="45"/>
-      <c r="H115" s="151" t="s">
+      <c r="H115" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="151"/>
+      <c r="I115" s="154"/>
       <c r="J115" s="45">
         <f>G114</f>
         <v>21.208500000000001</v>
@@ -14377,8 +14377,8 @@
       <c r="E141" s="39"/>
       <c r="F141" s="44"/>
       <c r="G141" s="45"/>
-      <c r="H141" s="151"/>
-      <c r="I141" s="151"/>
+      <c r="H141" s="154"/>
+      <c r="I141" s="154"/>
       <c r="J141" s="45"/>
       <c r="K141" s="45"/>
       <c r="L141" s="44"/>
@@ -14394,8 +14394,8 @@
       <c r="E142" s="45"/>
       <c r="F142" s="44"/>
       <c r="G142" s="45"/>
-      <c r="H142" s="151"/>
-      <c r="I142" s="151"/>
+      <c r="H142" s="154"/>
+      <c r="I142" s="154"/>
       <c r="J142" s="45"/>
       <c r="K142" s="45"/>
       <c r="L142" s="44"/>
@@ -14866,8 +14866,8 @@
       <c r="E169" s="39"/>
       <c r="F169" s="44"/>
       <c r="G169" s="45"/>
-      <c r="H169" s="151"/>
-      <c r="I169" s="151"/>
+      <c r="H169" s="154"/>
+      <c r="I169" s="154"/>
       <c r="J169" s="45"/>
       <c r="K169" s="45"/>
       <c r="L169" s="44"/>
@@ -15324,8 +15324,8 @@
       <c r="E195" s="39"/>
       <c r="F195" s="44"/>
       <c r="G195" s="45"/>
-      <c r="H195" s="151"/>
-      <c r="I195" s="151"/>
+      <c r="H195" s="154"/>
+      <c r="I195" s="154"/>
       <c r="J195" s="45"/>
       <c r="K195" s="45"/>
       <c r="L195" s="44"/>
@@ -15800,8 +15800,8 @@
       <c r="E222" s="39"/>
       <c r="F222" s="44"/>
       <c r="G222" s="45"/>
-      <c r="H222" s="151"/>
-      <c r="I222" s="151"/>
+      <c r="H222" s="154"/>
+      <c r="I222" s="154"/>
       <c r="J222" s="44"/>
       <c r="K222" s="45"/>
       <c r="L222" s="44"/>
@@ -16278,8 +16278,8 @@
       <c r="E249" s="39"/>
       <c r="F249" s="44"/>
       <c r="G249" s="45"/>
-      <c r="H249" s="151"/>
-      <c r="I249" s="151"/>
+      <c r="H249" s="154"/>
+      <c r="I249" s="154"/>
       <c r="J249" s="44"/>
       <c r="K249" s="45"/>
       <c r="L249" s="44"/>
@@ -16754,8 +16754,8 @@
       <c r="E276" s="39"/>
       <c r="F276" s="44"/>
       <c r="G276" s="45"/>
-      <c r="H276" s="151"/>
-      <c r="I276" s="151"/>
+      <c r="H276" s="154"/>
+      <c r="I276" s="154"/>
       <c r="J276" s="44"/>
       <c r="K276" s="45"/>
       <c r="L276" s="44"/>
@@ -17211,8 +17211,8 @@
       <c r="E302" s="39"/>
       <c r="F302" s="44"/>
       <c r="G302" s="45"/>
-      <c r="H302" s="151"/>
-      <c r="I302" s="151"/>
+      <c r="H302" s="154"/>
+      <c r="I302" s="154"/>
       <c r="J302" s="44"/>
       <c r="K302" s="45"/>
       <c r="L302" s="44"/>
@@ -17684,8 +17684,8 @@
       <c r="E329" s="39"/>
       <c r="F329" s="44"/>
       <c r="G329" s="45"/>
-      <c r="H329" s="151"/>
-      <c r="I329" s="151"/>
+      <c r="H329" s="154"/>
+      <c r="I329" s="154"/>
       <c r="J329" s="44"/>
       <c r="K329" s="45"/>
       <c r="L329" s="44"/>
@@ -22289,18 +22289,18 @@
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A598" s="63"/>
-      <c r="B598" s="154"/>
-      <c r="C598" s="154"/>
-      <c r="D598" s="154"/>
-      <c r="E598" s="154"/>
-      <c r="F598" s="154"/>
-      <c r="G598" s="154"/>
+      <c r="B598" s="151"/>
+      <c r="C598" s="151"/>
+      <c r="D598" s="151"/>
+      <c r="E598" s="151"/>
+      <c r="F598" s="151"/>
+      <c r="G598" s="151"/>
       <c r="H598" s="63"/>
-      <c r="I598" s="154"/>
-      <c r="J598" s="154"/>
-      <c r="K598" s="154"/>
-      <c r="L598" s="154"/>
-      <c r="M598" s="154"/>
+      <c r="I598" s="151"/>
+      <c r="J598" s="151"/>
+      <c r="K598" s="151"/>
+      <c r="L598" s="151"/>
+      <c r="M598" s="151"/>
       <c r="N598" s="43"/>
       <c r="O598" s="43"/>
       <c r="P598" s="47"/>
@@ -22863,8 +22863,8 @@
       <c r="E627" s="77"/>
       <c r="F627" s="73"/>
       <c r="G627" s="73"/>
-      <c r="H627" s="155"/>
-      <c r="I627" s="155"/>
+      <c r="H627" s="150"/>
+      <c r="I627" s="150"/>
       <c r="J627" s="77"/>
       <c r="K627" s="77"/>
       <c r="L627" s="77"/>
@@ -22876,18 +22876,18 @@
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A628" s="63"/>
-      <c r="B628" s="154"/>
-      <c r="C628" s="154"/>
-      <c r="D628" s="154"/>
-      <c r="E628" s="154"/>
-      <c r="F628" s="154"/>
-      <c r="G628" s="154"/>
+      <c r="B628" s="151"/>
+      <c r="C628" s="151"/>
+      <c r="D628" s="151"/>
+      <c r="E628" s="151"/>
+      <c r="F628" s="151"/>
+      <c r="G628" s="151"/>
       <c r="H628" s="63"/>
-      <c r="I628" s="154"/>
-      <c r="J628" s="154"/>
-      <c r="K628" s="154"/>
-      <c r="L628" s="154"/>
-      <c r="M628" s="154"/>
+      <c r="I628" s="151"/>
+      <c r="J628" s="151"/>
+      <c r="K628" s="151"/>
+      <c r="L628" s="151"/>
+      <c r="M628" s="151"/>
       <c r="N628" s="83"/>
       <c r="O628" s="83"/>
       <c r="P628" s="84"/>
@@ -23452,8 +23452,8 @@
       <c r="E657" s="77"/>
       <c r="F657" s="73"/>
       <c r="G657" s="73"/>
-      <c r="H657" s="155"/>
-      <c r="I657" s="155"/>
+      <c r="H657" s="150"/>
+      <c r="I657" s="150"/>
       <c r="J657" s="77"/>
       <c r="K657" s="77"/>
       <c r="L657" s="77"/>
@@ -23465,18 +23465,18 @@
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A658" s="63"/>
-      <c r="B658" s="154"/>
-      <c r="C658" s="154"/>
-      <c r="D658" s="154"/>
-      <c r="E658" s="154"/>
-      <c r="F658" s="154"/>
-      <c r="G658" s="154"/>
+      <c r="B658" s="151"/>
+      <c r="C658" s="151"/>
+      <c r="D658" s="151"/>
+      <c r="E658" s="151"/>
+      <c r="F658" s="151"/>
+      <c r="G658" s="151"/>
       <c r="H658" s="63"/>
-      <c r="I658" s="154"/>
-      <c r="J658" s="154"/>
-      <c r="K658" s="154"/>
-      <c r="L658" s="154"/>
-      <c r="M658" s="154"/>
+      <c r="I658" s="151"/>
+      <c r="J658" s="151"/>
+      <c r="K658" s="151"/>
+      <c r="L658" s="151"/>
+      <c r="M658" s="151"/>
       <c r="N658" s="83"/>
       <c r="O658" s="83"/>
       <c r="P658" s="84"/>
@@ -24042,8 +24042,8 @@
       <c r="E687" s="77"/>
       <c r="F687" s="73"/>
       <c r="G687" s="73"/>
-      <c r="H687" s="155"/>
-      <c r="I687" s="155"/>
+      <c r="H687" s="150"/>
+      <c r="I687" s="150"/>
       <c r="J687" s="77"/>
       <c r="K687" s="77"/>
       <c r="L687" s="77"/>
@@ -24055,18 +24055,18 @@
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A688" s="63"/>
-      <c r="B688" s="154"/>
-      <c r="C688" s="154"/>
-      <c r="D688" s="154"/>
-      <c r="E688" s="154"/>
-      <c r="F688" s="154"/>
-      <c r="G688" s="154"/>
+      <c r="B688" s="151"/>
+      <c r="C688" s="151"/>
+      <c r="D688" s="151"/>
+      <c r="E688" s="151"/>
+      <c r="F688" s="151"/>
+      <c r="G688" s="151"/>
       <c r="H688" s="63"/>
-      <c r="I688" s="154"/>
-      <c r="J688" s="154"/>
-      <c r="K688" s="154"/>
-      <c r="L688" s="154"/>
-      <c r="M688" s="154"/>
+      <c r="I688" s="151"/>
+      <c r="J688" s="151"/>
+      <c r="K688" s="151"/>
+      <c r="L688" s="151"/>
+      <c r="M688" s="151"/>
       <c r="N688" s="83"/>
       <c r="O688" s="83"/>
       <c r="P688" s="84"/>
@@ -24651,8 +24651,8 @@
       <c r="E718" s="77"/>
       <c r="F718" s="73"/>
       <c r="G718" s="73"/>
-      <c r="H718" s="155"/>
-      <c r="I718" s="155"/>
+      <c r="H718" s="150"/>
+      <c r="I718" s="150"/>
       <c r="J718" s="77"/>
       <c r="K718" s="77"/>
       <c r="L718" s="77"/>
@@ -24664,18 +24664,18 @@
     </row>
     <row r="719" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A719" s="63"/>
-      <c r="B719" s="154"/>
-      <c r="C719" s="154"/>
-      <c r="D719" s="154"/>
-      <c r="E719" s="154"/>
-      <c r="F719" s="154"/>
-      <c r="G719" s="154"/>
+      <c r="B719" s="151"/>
+      <c r="C719" s="151"/>
+      <c r="D719" s="151"/>
+      <c r="E719" s="151"/>
+      <c r="F719" s="151"/>
+      <c r="G719" s="151"/>
       <c r="H719" s="63"/>
-      <c r="I719" s="154"/>
-      <c r="J719" s="154"/>
-      <c r="K719" s="154"/>
-      <c r="L719" s="154"/>
-      <c r="M719" s="154"/>
+      <c r="I719" s="151"/>
+      <c r="J719" s="151"/>
+      <c r="K719" s="151"/>
+      <c r="L719" s="151"/>
+      <c r="M719" s="151"/>
       <c r="N719" s="83"/>
       <c r="O719" s="83"/>
       <c r="P719" s="84"/>
@@ -25260,8 +25260,8 @@
       <c r="E749" s="77"/>
       <c r="F749" s="73"/>
       <c r="G749" s="73"/>
-      <c r="H749" s="155"/>
-      <c r="I749" s="155"/>
+      <c r="H749" s="150"/>
+      <c r="I749" s="150"/>
       <c r="J749" s="77"/>
       <c r="K749" s="77"/>
       <c r="L749" s="77"/>
@@ -25273,18 +25273,18 @@
     </row>
     <row r="750" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A750" s="63"/>
-      <c r="B750" s="154"/>
-      <c r="C750" s="154"/>
-      <c r="D750" s="154"/>
-      <c r="E750" s="154"/>
-      <c r="F750" s="154"/>
-      <c r="G750" s="154"/>
+      <c r="B750" s="151"/>
+      <c r="C750" s="151"/>
+      <c r="D750" s="151"/>
+      <c r="E750" s="151"/>
+      <c r="F750" s="151"/>
+      <c r="G750" s="151"/>
       <c r="H750" s="63"/>
-      <c r="I750" s="154"/>
-      <c r="J750" s="154"/>
-      <c r="K750" s="154"/>
-      <c r="L750" s="154"/>
-      <c r="M750" s="154"/>
+      <c r="I750" s="151"/>
+      <c r="J750" s="151"/>
+      <c r="K750" s="151"/>
+      <c r="L750" s="151"/>
+      <c r="M750" s="151"/>
       <c r="N750" s="83"/>
       <c r="O750" s="83"/>
       <c r="P750" s="84"/>
@@ -25878,75 +25878,99 @@
       <c r="P780" s="69"/>
       <c r="Q780" s="69"/>
     </row>
+    <row r="785" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H749:I749"/>
-    <mergeCell ref="B750:G750"/>
-    <mergeCell ref="I750:M750"/>
-    <mergeCell ref="H687:I687"/>
-    <mergeCell ref="B688:G688"/>
-    <mergeCell ref="I688:M688"/>
-    <mergeCell ref="H718:I718"/>
-    <mergeCell ref="B719:G719"/>
-    <mergeCell ref="I719:M719"/>
-    <mergeCell ref="H627:I627"/>
-    <mergeCell ref="B628:G628"/>
-    <mergeCell ref="I628:M628"/>
-    <mergeCell ref="H657:I657"/>
-    <mergeCell ref="B658:G658"/>
-    <mergeCell ref="I658:M658"/>
-    <mergeCell ref="H567:I567"/>
-    <mergeCell ref="B568:G568"/>
-    <mergeCell ref="I568:M568"/>
-    <mergeCell ref="H597:I597"/>
-    <mergeCell ref="B598:G598"/>
-    <mergeCell ref="I598:M598"/>
-    <mergeCell ref="H507:I507"/>
-    <mergeCell ref="B508:G508"/>
-    <mergeCell ref="I508:M508"/>
-    <mergeCell ref="H537:I537"/>
-    <mergeCell ref="B538:G538"/>
-    <mergeCell ref="I538:M538"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="B448:G448"/>
-    <mergeCell ref="I448:M448"/>
-    <mergeCell ref="H477:I477"/>
-    <mergeCell ref="B478:G478"/>
-    <mergeCell ref="I478:M478"/>
-    <mergeCell ref="B389:G389"/>
-    <mergeCell ref="I389:M389"/>
-    <mergeCell ref="H417:I417"/>
-    <mergeCell ref="B418:G418"/>
-    <mergeCell ref="I418:M418"/>
-    <mergeCell ref="H359:I359"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="I360:M360"/>
-    <mergeCell ref="H388:I388"/>
-    <mergeCell ref="B305:G305"/>
-    <mergeCell ref="I305:M305"/>
-    <mergeCell ref="H329:I329"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="B331:G331"/>
-    <mergeCell ref="I331:M331"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="B278:G278"/>
-    <mergeCell ref="I278:M278"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="I225:M225"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="B252:G252"/>
-    <mergeCell ref="I252:M252"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="I198:M198"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="I145:M145"/>
+    <mergeCell ref="H142:I142"/>
     <mergeCell ref="H302:I302"/>
     <mergeCell ref="H304:I304"/>
     <mergeCell ref="D63:E63"/>
@@ -25963,20 +25987,73 @@
     <mergeCell ref="B171:G171"/>
     <mergeCell ref="I171:M171"/>
     <mergeCell ref="H170:I170"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="I145:M145"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="I198:M198"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="I117:M117"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="I278:M278"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="I225:M225"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="B252:G252"/>
+    <mergeCell ref="I252:M252"/>
+    <mergeCell ref="H359:I359"/>
+    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="I360:M360"/>
+    <mergeCell ref="H388:I388"/>
+    <mergeCell ref="B305:G305"/>
+    <mergeCell ref="I305:M305"/>
+    <mergeCell ref="H329:I329"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="B331:G331"/>
+    <mergeCell ref="I331:M331"/>
+    <mergeCell ref="B389:G389"/>
+    <mergeCell ref="I389:M389"/>
+    <mergeCell ref="H417:I417"/>
+    <mergeCell ref="B418:G418"/>
+    <mergeCell ref="I418:M418"/>
+    <mergeCell ref="H447:I447"/>
+    <mergeCell ref="B448:G448"/>
+    <mergeCell ref="I448:M448"/>
+    <mergeCell ref="H477:I477"/>
+    <mergeCell ref="B478:G478"/>
+    <mergeCell ref="I478:M478"/>
+    <mergeCell ref="H507:I507"/>
+    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="I508:M508"/>
+    <mergeCell ref="H537:I537"/>
+    <mergeCell ref="B538:G538"/>
+    <mergeCell ref="I538:M538"/>
+    <mergeCell ref="H567:I567"/>
+    <mergeCell ref="B568:G568"/>
+    <mergeCell ref="I568:M568"/>
+    <mergeCell ref="H597:I597"/>
+    <mergeCell ref="B598:G598"/>
+    <mergeCell ref="I598:M598"/>
+    <mergeCell ref="H627:I627"/>
+    <mergeCell ref="B628:G628"/>
+    <mergeCell ref="I628:M628"/>
+    <mergeCell ref="H657:I657"/>
+    <mergeCell ref="B658:G658"/>
+    <mergeCell ref="I658:M658"/>
+    <mergeCell ref="H749:I749"/>
+    <mergeCell ref="B750:G750"/>
+    <mergeCell ref="I750:M750"/>
+    <mergeCell ref="H687:I687"/>
+    <mergeCell ref="B688:G688"/>
+    <mergeCell ref="I688:M688"/>
+    <mergeCell ref="H718:I718"/>
+    <mergeCell ref="B719:G719"/>
+    <mergeCell ref="I719:M719"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
